--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1912315.560314277</v>
+        <v>1906593.948346391</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836236</v>
+        <v>6654055.582836241</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>232.8190742372721</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>27.77238941128203</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,10 +828,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>205.1478855987998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>303.95545167565</v>
+        <v>116.3183080454243</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,13 +952,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>158.1533921626214</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>40.04014867646099</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>114.8791903675462</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1296,25 +1296,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>30.60408762095413</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>67.06388118995309</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>131.3926935616832</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1548,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>150.2062474346973</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>13.89072837997162</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192029</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>129.576597042179</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>9.779728886661957</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>114.4746605491556</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>283.8758740715556</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>80.00124118081804</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>120.6353666620239</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>8.451161327941099</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>74.75769145492404</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>124.5994576869019</v>
+        <v>6.38006817584717</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>82.37333111840078</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785986</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>90.15542043263943</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>199.6221996898803</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.683768698139</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C2" t="n">
-        <v>1194.683768698139</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D2" t="n">
-        <v>1194.683768698139</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.096172420968</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W2" t="n">
-        <v>1958.288858935031</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X2" t="n">
-        <v>1584.823100673951</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y2" t="n">
-        <v>1194.683768698139</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>351.9727148150933</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1491.915471247702</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C5" t="n">
-        <v>1491.915471247702</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D5" t="n">
-        <v>1491.915471247702</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="E5" t="n">
-        <v>1106.127218649458</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548715</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548715</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287635</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.515311311824</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="6">
@@ -4622,73 +4622,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>568.3780830320693</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>568.3780830320693</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>568.3780830320693</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="X7" t="n">
-        <v>340.388532134052</v>
+        <v>245.4549451025302</v>
       </c>
       <c r="Y7" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2656.704496395535</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2656.704496395535</v>
       </c>
       <c r="U8" t="n">
-        <v>2526.08081531887</v>
+        <v>2402.942711033626</v>
       </c>
       <c r="V8" t="n">
-        <v>2526.08081531887</v>
+        <v>2071.879823690055</v>
       </c>
       <c r="W8" t="n">
-        <v>2526.08081531887</v>
+        <v>1719.111168419941</v>
       </c>
       <c r="X8" t="n">
-        <v>2526.08081531887</v>
+        <v>1345.645410158861</v>
       </c>
       <c r="Y8" t="n">
-        <v>2135.941483343059</v>
+        <v>955.5060781830496</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.535689181137</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4986,28 +4986,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124028</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>268.535689181137</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>268.535689181137</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.535689181137</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5020,25 +5020,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
         <v>451.8458144277729</v>
@@ -5050,37 +5050,37 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3082.932479700092</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3585.904950579429</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5153,7 +5153,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1523.103642431788</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U13" t="n">
-        <v>1523.103642431788</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V13" t="n">
-        <v>1523.103642431788</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W13" t="n">
-        <v>1523.103642431788</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>1156.056813762912</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>1156.056813762912</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2215.249704195857</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2762.028521254639</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
-        <v>3641.993171584094</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>278.5282561439494</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>109.5920732160425</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V16" t="n">
-        <v>1956.343466104704</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>680.9693001177193</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>460.1767209741892</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5521,46 +5521,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M17" t="n">
-        <v>2536.15366264131</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N17" t="n">
-        <v>3082.932479700092</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O17" t="n">
-        <v>3585.904950579429</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5627,10 +5627,10 @@
         <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
         <v>1554.419908487875</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5700,7 +5700,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
         <v>1559.196154437386</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>361.822894557956</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C22" t="n">
-        <v>192.8867116300491</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D22" t="n">
-        <v>192.8867116300491</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E22" t="n">
-        <v>192.8867116300491</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F22" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1825.458014546947</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1825.458014546947</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1536.355147672591</v>
+        <v>1443.181995231653</v>
       </c>
       <c r="V22" t="n">
-        <v>1281.670659466704</v>
+        <v>1188.497507025766</v>
       </c>
       <c r="W22" t="n">
-        <v>992.2534894297431</v>
+        <v>1188.497507025766</v>
       </c>
       <c r="X22" t="n">
-        <v>764.2639385317258</v>
+        <v>960.5079561277488</v>
       </c>
       <c r="Y22" t="n">
-        <v>543.4713593881957</v>
+        <v>739.7153769842187</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
@@ -6004,13 +6004,13 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839441</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1256.147659358071</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>1001.463171152184</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>712.0460011152229</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>484.0564502172056</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>263.2638710736754</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,52 +6226,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839441</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1875.534131578625</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="29">
@@ -6466,25 +6466,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>753.1470291944236</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1617.665844847778</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2151.197749519703</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>973.7726509601081</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>804.8364680322012</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839441</v>
@@ -6657,16 +6657,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1163.957642384228</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>1155.421115790348</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>1155.421115790348</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y31" t="n">
-        <v>1155.421115790348</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="32">
@@ -6679,22 +6679,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6703,16 +6703,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294612</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353394</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O32" t="n">
         <v>3482.142110232731</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6891,19 +6891,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,22 +6937,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366028</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M35" t="n">
-        <v>2215.249704195857</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>3195.001976422504</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>3697.97444730184</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
         <v>4195.497197679678</v>
@@ -6970,13 +6970,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,25 +7016,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,19 +7153,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7174,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7244,22 +7244,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.811212990069</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="C40" t="n">
-        <v>612.8750300621621</v>
+        <v>102.005547757331</v>
       </c>
       <c r="D40" t="n">
-        <v>612.8750300621621</v>
+        <v>102.005547757331</v>
       </c>
       <c r="E40" t="n">
-        <v>464.961936479769</v>
+        <v>102.005547757331</v>
       </c>
       <c r="F40" t="n">
-        <v>464.961936479769</v>
+        <v>102.005547757331</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U40" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V40" t="n">
-        <v>1701.658977898817</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W40" t="n">
-        <v>1412.241807861856</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X40" t="n">
-        <v>1184.252256963839</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.4596778203087</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="41">
@@ -7390,19 +7390,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,28 +7411,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7444,13 +7444,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,25 +7490,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>906.8613965158539</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>737.925213587947</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>654.7198286198654</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U43" t="n">
-        <v>1355.643526557401</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1355.643526557401</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1355.643526557401</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>1127.653975659384</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.8613965158539</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7627,73 +7627,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1014.851249206415</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1465.885462454823</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>1999.417367126748</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>2389.019482279158</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>582.3166934139181</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C46" t="n">
-        <v>413.3805104860112</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D46" t="n">
         <v>263.2638710736754</v>
@@ -7797,19 +7797,19 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.277384859613</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T46" t="n">
-        <v>1643.51076942914</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U46" t="n">
-        <v>1354.407902554783</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V46" t="n">
-        <v>1099.723414348896</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W46" t="n">
-        <v>810.3062443119354</v>
+        <v>874.5404723472661</v>
       </c>
       <c r="X46" t="n">
-        <v>582.3166934139181</v>
+        <v>646.5509214492488</v>
       </c>
       <c r="Y46" t="n">
-        <v>582.3166934139181</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8227,7 +8227,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119832</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8698,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>216.9877583263329</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8944,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>160.3329896347532</v>
+        <v>285.7011105564198</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9169,25 +9169,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>216.9877583263338</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,25 +9403,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>132.9990175570116</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9652,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>67.53663776704209</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>23.80814351663537</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>136.2499899971285</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>96.13798426930646</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>39.48321557772579</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10588,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>219.3344627260167</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,13 +10597,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>103.7862464855144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>344.7025836476849</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>231.5010718068642</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>48.43928662025408</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>69.34270184147189</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>134.7247446382407</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>16.14213605696631</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>60.19242828926286</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>276.4321093189509</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>105.0742887270136</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2.335964134057292</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>109.7677841506239</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>105.0742887270133</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>278.0718370086499</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>21.59472895491405</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>41.42635057212631</v>
+        <v>159.6457400831811</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>66.24214189981157</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>105.0742887270143</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>99.61360489880246</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>18.9624536622145</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878023.6515523276</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878023.6515523279</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583913</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583912</v>
-      </c>
-      <c r="C2" t="n">
-        <v>554203.1946583908</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
         <v>536060.4122974275</v>
       </c>
       <c r="F2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="G2" t="n">
         <v>536060.4122974274</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="I2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="J2" t="n">
+        <v>536060.4122974274</v>
+      </c>
+      <c r="K2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="L2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="M2" t="n">
+        <v>536060.4122974274</v>
+      </c>
+      <c r="N2" t="n">
         <v>536060.4122974275</v>
       </c>
-      <c r="H2" t="n">
-        <v>536060.4122974277</v>
-      </c>
-      <c r="I2" t="n">
-        <v>536060.4122974278</v>
-      </c>
-      <c r="J2" t="n">
-        <v>536060.4122974279</v>
-      </c>
-      <c r="K2" t="n">
-        <v>536060.4122974279</v>
-      </c>
-      <c r="L2" t="n">
-        <v>536060.4122974275</v>
-      </c>
-      <c r="M2" t="n">
-        <v>536060.4122974278</v>
-      </c>
-      <c r="N2" t="n">
-        <v>536060.4122974277</v>
-      </c>
       <c r="O2" t="n">
-        <v>536060.412297428</v>
+        <v>536060.4122974271</v>
       </c>
       <c r="P2" t="n">
-        <v>536060.4122974272</v>
+        <v>536060.4122974274</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389446</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
+        <v>25090.72367499379</v>
+      </c>
+      <c r="K4" t="n">
+        <v>25090.72367499379</v>
+      </c>
+      <c r="L4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="N4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="O4" t="n">
+        <v>25090.72367499384</v>
+      </c>
+      <c r="P4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25090.7236749938</v>
-      </c>
-      <c r="M4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="N4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="P4" t="n">
-        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319688.2685472943</v>
+        <v>-319688.2685472942</v>
       </c>
       <c r="C6" t="n">
-        <v>270279.6106672499</v>
+        <v>270279.6106672501</v>
       </c>
       <c r="D6" t="n">
-        <v>270279.61066725</v>
+        <v>270279.6106672502</v>
       </c>
       <c r="E6" t="n">
-        <v>-312791.2436246867</v>
+        <v>-313463.1985269444</v>
       </c>
       <c r="F6" t="n">
-        <v>414586.17036872</v>
+        <v>413914.2154664623</v>
       </c>
       <c r="G6" t="n">
-        <v>414586.1703687201</v>
+        <v>413914.215466462</v>
       </c>
       <c r="H6" t="n">
-        <v>414586.1703687201</v>
+        <v>413914.2154664619</v>
       </c>
       <c r="I6" t="n">
-        <v>414586.1703687203</v>
+        <v>413914.2154664619</v>
       </c>
       <c r="J6" t="n">
-        <v>238162.9511761275</v>
+        <v>237490.9962738691</v>
       </c>
       <c r="K6" t="n">
-        <v>414586.1703687204</v>
+        <v>413914.2154664623</v>
       </c>
       <c r="L6" t="n">
-        <v>414586.1703687201</v>
+        <v>413914.2154664619</v>
       </c>
       <c r="M6" t="n">
-        <v>284943.8555297754</v>
+        <v>284271.9006275174</v>
       </c>
       <c r="N6" t="n">
-        <v>414586.1703687201</v>
+        <v>413914.2154664621</v>
       </c>
       <c r="O6" t="n">
-        <v>414586.1703687205</v>
+        <v>413914.2154664617</v>
       </c>
       <c r="P6" t="n">
-        <v>414586.1703687197</v>
+        <v>413914.215466462</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.225657850375</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>149.1112958349897</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>188.6759309463758</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,10 +27548,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.43676775329496</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>102.9205940660614</v>
+        <v>290.5577376962871</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27672,13 +27672,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>128.1284820793564</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>28.98780970275067</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>134.3755641325105</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>136.3449771407431</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,25 +28016,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>125.566801220841</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>219.4591171466379</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32083,7 +32083,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32557,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492227</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35418,16 +35418,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>615.7497445457047</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
@@ -35649,13 +35649,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -35664,7 +35664,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>559.0949758541251</v>
+        <v>684.4630967757917</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35731,7 +35731,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35889,25 +35889,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7497445457057</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>685.3008529699231</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36205,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36372,16 +36372,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>318.3309425707616</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>562.7292593468621</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36618,7 +36618,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>473.441276552529</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36855,7 +36855,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>635.0591000995332</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>591.7850509906373</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>556.5257492814171</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>502.5482327048862</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>897.0044190605962</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>568.6923583622646</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597693</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1906593.948346391</v>
+        <v>1909999.43947084</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836241</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>298.6217232731161</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>27.77238941128203</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>116.3183080454243</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -946,7 +946,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>74.53476167013089</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>189.5968436493441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>187.7921753589432</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>40.04014867646099</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>30.60408762095413</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>131.3926935616832</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>109.9022384814634</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1767,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.89072837997162</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>203.4068132192029</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>211.374611777777</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>9.779728886661957</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>165.8022064389448</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>283.8758740715556</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>80.00124118081804</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>187.735625402228</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>74.75769145492406</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3009,7 +3009,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>88.68466274181993</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>173.626889274475</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>59.90320919298912</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292569</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>6.38006817584717</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3954,7 +3954,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>181.1375494785986</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4194,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>199.6221996898803</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1187.828354776384</v>
+        <v>597.2403795762991</v>
       </c>
       <c r="C2" t="n">
-        <v>818.8658378359718</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2669.096172420968</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2669.096172420968</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2338.033285077397</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2338.033285077397</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1964.567526816317</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1574.428194840505</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4415,16 +4415,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721089</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>185.3596263316971</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>185.3596263316971</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>185.3596263316971</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2566.832763498078</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2566.832763498078</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2313.07097813617</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4761,16 +4761,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>245.4549451025302</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>955.5060781830496</v>
+        <v>808.083928634017</v>
       </c>
       <c r="C8" t="n">
-        <v>586.5435612426379</v>
+        <v>808.083928634017</v>
       </c>
       <c r="D8" t="n">
-        <v>228.2778626358874</v>
+        <v>808.083928634017</v>
       </c>
       <c r="E8" t="n">
-        <v>228.2778626358874</v>
+        <v>808.083928634017</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>397.0980238444094</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4801,22 +4801,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2656.704496395535</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2656.704496395535</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2402.942711033626</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2071.879823690055</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>1719.111168419941</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X8" t="n">
-        <v>1345.645410158861</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y8" t="n">
-        <v>955.5060781830496</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,13 +4880,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198135</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374204</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>84.85620163951003</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>84.85620163951003</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,67 +5020,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M11" t="n">
-        <v>2536.15366264131</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N11" t="n">
-        <v>3082.932479700092</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O11" t="n">
-        <v>3585.904950579429</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5144,10 +5144,10 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1023.336921276364</v>
+        <v>525.6262188911253</v>
       </c>
       <c r="C13" t="n">
-        <v>854.4007383484569</v>
+        <v>356.6900359632184</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>206.5733965508827</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>206.5733965508827</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5241,10 +5241,10 @@
         <v>1156.056813762912</v>
       </c>
       <c r="X13" t="n">
-        <v>1156.056813762912</v>
+        <v>928.0672628648952</v>
       </c>
       <c r="Y13" t="n">
-        <v>1156.056813762912</v>
+        <v>707.274683721365</v>
       </c>
     </row>
     <row r="14">
@@ -5263,19 +5263,19 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
@@ -5287,28 +5287,28 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>3517.878731871643</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>278.5282561439494</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>109.5920732160425</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V16" t="n">
-        <v>1198.376021052697</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>908.9588510157366</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>680.9693001177193</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>460.1767209741892</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5503,16 +5503,16 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
@@ -5521,46 +5521,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1586.925993846823</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M17" t="n">
-        <v>2120.457898518747</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N17" t="n">
-        <v>2667.23671557753</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O17" t="n">
-        <v>3547.201365906984</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P17" t="n">
-        <v>4260.55645335393</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
         <v>794.2006632320243</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,7 +5624,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5633,7 +5633,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>557.6043516563539</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5703,22 +5703,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>771.1140605227953</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>557.6043516563539</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>1923.729615463053</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390118</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5943,19 +5943,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1443.181995231653</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1188.497507025766</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1188.497507025766</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>960.5079561277488</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.7153769842187</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="23">
@@ -5986,28 +5986,28 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866375</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1549.639626139992</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O23" t="n">
-        <v>3944.053400686433</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P23" t="n">
-        <v>4338.827767043611</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
         <v>4653.975400188665</v>
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1788.866489903749</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1567.099874473275</v>
       </c>
       <c r="U25" t="n">
-        <v>1256.147659358071</v>
+        <v>1567.099874473275</v>
       </c>
       <c r="V25" t="n">
-        <v>1001.463171152184</v>
+        <v>1312.415386267388</v>
       </c>
       <c r="W25" t="n">
-        <v>712.0460011152229</v>
+        <v>1022.998216230428</v>
       </c>
       <c r="X25" t="n">
-        <v>484.0564502172056</v>
+        <v>795.0086653324104</v>
       </c>
       <c r="Y25" t="n">
-        <v>263.2638710736754</v>
+        <v>574.2160861888802</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,52 +6226,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2528.189928969821</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1023.336921276364</v>
+        <v>705.517445238747</v>
       </c>
       <c r="C28" t="n">
-        <v>854.4007383484569</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D28" t="n">
-        <v>704.2840989361212</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E28" t="n">
-        <v>556.371005353728</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
         <v>241.7782212305366</v>
@@ -6411,25 +6411,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1875.534131578625</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1653.767516148151</v>
+        <v>1766.711521253968</v>
       </c>
       <c r="U28" t="n">
-        <v>1653.767516148151</v>
+        <v>1477.608654379612</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.767516148151</v>
+        <v>1222.924166173725</v>
       </c>
       <c r="W28" t="n">
-        <v>1653.767516148151</v>
+        <v>933.5069961367643</v>
       </c>
       <c r="X28" t="n">
-        <v>1425.777965250134</v>
+        <v>705.517445238747</v>
       </c>
       <c r="Y28" t="n">
-        <v>1204.985386106604</v>
+        <v>705.517445238747</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6466,49 +6466,49 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>753.1470291944236</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1617.665844847778</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2151.197749519703</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3130.95002174635</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.0738540998329</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6712,40 +6712,40 @@
         <v>2016.310259422546</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903276</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
@@ -6922,43 +6922,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1002.806306216376</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1453.840519464784</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2432.390822294613</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6973,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,25 +7016,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839442</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1895.835173990573</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089254</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483405</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>102.005547757331</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>102.005547757331</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>102.005547757331</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>102.005547757331</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104703</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.576850674229</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>1190.789495593986</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>901.3723255570251</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>673.3827746590077</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>452.5901955154776</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483405</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542187</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4267.726242273417</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,22 +7584,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
         <v>1270.093287563029</v>
@@ -7627,49 +7627,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1014.851249206415</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1465.885462454823</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M44" t="n">
-        <v>1999.417367126748</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353394</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7681,19 +7681,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
         <v>2436.460902902953</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839441</v>
@@ -7806,10 +7806,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1163.957642384227</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>874.5404723472661</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>646.5509214492488</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>444.9123359039152</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>216.9877583263329</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8935,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>216.9877583263337</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>285.7011105564198</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>29.61882225792044</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9403,25 +9403,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>132.9990175570116</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>67.53663776704161</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>67.53663776704209</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9874,22 +9874,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>23.80814351663537</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>136.2499899971285</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>39.48321557772579</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>219.3344627260167</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="N38" t="n">
-        <v>344.7025836476849</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,16 +11074,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>205.0727796301204</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>231.5010718068642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,16 +11311,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>258.6211785616921</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.43928662025408</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>35.51880954146787</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>134.7247446382407</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,13 +23901,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>16.14213605696631</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>7.210041574317785</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,13 +24135,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>276.4321093189509</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>23.96681889249709</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2.335964134057292</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>109.7677841506239</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>31.81332387394116</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>105.0742887270132</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>77.34114551720829</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14213605696685</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>159.6457400831801</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>159.6457400831811</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>105.0742887270143</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.9624536622145</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
+        <v>536060.4122974279</v>
+      </c>
+      <c r="F2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="G2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="H2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="I2" t="n">
+        <v>536060.4122974274</v>
+      </c>
+      <c r="J2" t="n">
         <v>536060.4122974275</v>
       </c>
-      <c r="F2" t="n">
-        <v>536060.4122974277</v>
-      </c>
-      <c r="G2" t="n">
-        <v>536060.4122974274</v>
-      </c>
-      <c r="H2" t="n">
-        <v>536060.4122974273</v>
-      </c>
-      <c r="I2" t="n">
-        <v>536060.4122974273</v>
-      </c>
-      <c r="J2" t="n">
-        <v>536060.4122974274</v>
-      </c>
       <c r="K2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="L2" t="n">
         <v>536060.4122974273</v>
       </c>
       <c r="M2" t="n">
+        <v>536060.4122974275</v>
+      </c>
+      <c r="N2" t="n">
         <v>536060.4122974274</v>
       </c>
-      <c r="N2" t="n">
-        <v>536060.4122974275</v>
-      </c>
       <c r="O2" t="n">
-        <v>536060.4122974271</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="P2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974277</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389446</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="F4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="H4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="I4" t="n">
         <v>25090.7236749938</v>
       </c>
-      <c r="F4" t="n">
-        <v>25090.72367499379</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="I4" t="n">
-        <v>25090.72367499381</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25090.72367499379</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25090.72367499379</v>
-      </c>
       <c r="L4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499384</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26499,10 +26499,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319688.2685472942</v>
+        <v>-319688.2685472943</v>
       </c>
       <c r="C6" t="n">
         <v>270279.6106672501</v>
       </c>
       <c r="D6" t="n">
-        <v>270279.6106672502</v>
+        <v>270279.6106672499</v>
       </c>
       <c r="E6" t="n">
-        <v>-313463.1985269444</v>
+        <v>-312858.4391149122</v>
       </c>
       <c r="F6" t="n">
-        <v>413914.2154664623</v>
+        <v>414518.974878494</v>
       </c>
       <c r="G6" t="n">
-        <v>413914.215466462</v>
+        <v>414518.9748784943</v>
       </c>
       <c r="H6" t="n">
-        <v>413914.2154664619</v>
+        <v>414518.9748784945</v>
       </c>
       <c r="I6" t="n">
-        <v>413914.2154664619</v>
+        <v>414518.9748784942</v>
       </c>
       <c r="J6" t="n">
-        <v>237490.9962738691</v>
+        <v>238095.7556859014</v>
       </c>
       <c r="K6" t="n">
-        <v>413914.2154664623</v>
+        <v>414518.9748784943</v>
       </c>
       <c r="L6" t="n">
-        <v>413914.2154664619</v>
+        <v>414518.974878494</v>
       </c>
       <c r="M6" t="n">
-        <v>284271.9006275174</v>
+        <v>284876.6600395494</v>
       </c>
       <c r="N6" t="n">
-        <v>413914.2154664621</v>
+        <v>414518.9748784942</v>
       </c>
       <c r="O6" t="n">
-        <v>413914.2154664617</v>
+        <v>414518.974878494</v>
       </c>
       <c r="P6" t="n">
-        <v>413914.215466462</v>
+        <v>414518.9748784944</v>
       </c>
     </row>
   </sheetData>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>84.11211839036446</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>188.6759309463758</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>290.5577376962871</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>99.88095113884062</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.98780970275067</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>225.9919946618517</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>134.3755641325105</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>125.566801220841</v>
+        <v>96.44405126592673</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32083,7 +32083,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
         <v>593.9283018233475</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32317,7 +32317,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
         <v>508.9565619138796</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,13 +35251,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>615.7497445457047</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35655,16 +35655,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>769.2895937392452</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>684.4630967757917</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
@@ -35731,7 +35731,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
         <v>451.7942679013292</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35889,7 +35889,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>485.2089366502526</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35965,7 +35965,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
         <v>370.4021821340054</v>
@@ -36123,25 +36123,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>685.3008529699231</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36360,7 +36360,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>404.7279243224421</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36378,7 +36378,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>318.3309425707616</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36594,22 +36594,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>562.7292593468621</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36618,7 +36618,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36834,19 +36834,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>473.441276552529</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36855,7 +36855,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>591.7850509906373</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>556.5257492814171</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>740.8875257003384</v>
       </c>
       <c r="N38" t="n">
-        <v>897.0044190605962</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636241</v>
+        <v>455.8670844338399</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>568.6923583622646</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>766.6741794499112</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
